--- a/Listas de precios/mayorista/SOP. CAÑOS CURVOS.xlsx
+++ b/Listas de precios/mayorista/SOP. CAÑOS CURVOS.xlsx
@@ -836,7 +836,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -961,12 +961,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/SOP. CAÑOS CURVOS.xlsx
+++ b/Listas de precios/mayorista/SOP. CAÑOS CURVOS.xlsx
@@ -836,7 +836,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -961,12 +961,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/SOP. CAÑOS CURVOS.xlsx
+++ b/Listas de precios/mayorista/SOP. CAÑOS CURVOS.xlsx
@@ -836,7 +836,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="5" t="n"/>
     </row>
@@ -961,12 +961,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
